--- a/Models/games_odds.xlsx
+++ b/Models/games_odds.xlsx
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>-700</v>
+        <v>1.142857142857143</v>
       </c>
     </row>
     <row r="3">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>124</v>
+        <v>2.2</v>
       </c>
       <c r="D3" t="n">
-        <v>-148</v>
+        <v>1.704225352112676</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-325</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="D4" t="n">
-        <v>260</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>160</v>
+        <v>2.6</v>
       </c>
       <c r="D5" t="n">
-        <v>-192</v>
+        <v>1.520833333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Models/games_odds.xlsx
+++ b/Models/games_odds.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tonight" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Previous" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +17,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,95 +444,242 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>visitor</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>v_line</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>l_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1.387596899224806</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>visitor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>local</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>v_line</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>l_line</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="n">
+        <v>45325</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.588235294117647</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45325</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.704225352112676</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45325</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45325</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>LAL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.142857142857143</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>NYK</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.704225352112676</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="D5" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.505050505050505</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45325</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1.540540540540541</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45325</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>CLE</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1.307692307692308</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.520833333333333</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.21978021978022</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
